--- a/06-03-2023/data/output/xlsx/sample_0/8_causality.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/8_causality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="123">
   <si>
     <t>name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__17</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -136,6 +133,30 @@
     <t>num_of_decimals__21</t>
   </si>
   <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
@@ -172,6 +193,18 @@
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__14</t>
+  </si>
+  <si>
+    <t>num_of_equals__15</t>
+  </si>
+  <si>
+    <t>num_of_equals__16</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
@@ -220,6 +253,9 @@
     <t>num_of_mults_and_divs__15</t>
   </si>
   <si>
+    <t>num_of_mults_and_divs__16</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
@@ -250,9 +286,6 @@
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
@@ -292,21 +325,6 @@
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__15</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__16</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__17</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
@@ -334,73 +352,37 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,pairs_of_parentheses__0</t>
+    <t>num_of_adds_and_subs__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__4,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__4,num_of_equals__0,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__3,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__3,num_of_unknowns__0,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__2,num_of_unknowns__0,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__2,num_of_mults_and_divs__3,pairs_of_parentheses__0</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__4,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__0</t>
   </si>
 </sst>
 </file>
@@ -758,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -795,19 +777,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F2">
-        <v>0.008264462809917356</v>
+        <v>0.007186858316221766</v>
       </c>
       <c r="G2">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H2">
-        <v>-0.0007535732622269333</v>
+        <v>-0.0008291737479064901</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -818,19 +800,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="D3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F3">
-        <v>0.00718562874251497</v>
+        <v>0.007083825265643448</v>
       </c>
       <c r="G3">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H3">
-        <v>-0.001832407329629319</v>
+        <v>-0.0009322067984848083</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -841,19 +823,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H4">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -864,19 +846,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H5">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -890,16 +872,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H6">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -913,16 +895,16 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H7">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -936,16 +918,16 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H8">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -956,19 +938,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H9">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -979,19 +961,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H10">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1002,19 +984,22 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>105</v>
+        <v>444</v>
+      </c>
+      <c r="D11">
+        <v>0.008487684077172847</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.01126126126126126</v>
       </c>
       <c r="G11">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H11">
-        <v>-0.009018036072144289</v>
+        <v>0.003245229197133005</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1025,22 +1010,22 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>427</v>
+        <v>310</v>
       </c>
       <c r="D12">
-        <v>0.02229184026949127</v>
+        <v>0.003860456725701017</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="F12">
-        <v>0.00936768149882904</v>
+        <v>0.00967741935483871</v>
       </c>
       <c r="G12">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H12">
-        <v>0.0003496454266847509</v>
+        <v>0.001661387290710454</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1051,22 +1036,19 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>295</v>
-      </c>
-      <c r="D13">
-        <v>0.02955813145994788</v>
-      </c>
-      <c r="E13" t="s">
-        <v>107</v>
+        <v>202</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
       </c>
       <c r="F13">
-        <v>0.0135593220338983</v>
+        <v>0.004950495049504951</v>
       </c>
       <c r="G13">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H13">
-        <v>0.004541285961754016</v>
+        <v>-0.003065537014623305</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1077,19 +1059,19 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F14">
-        <v>0.005714285714285714</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="G14">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H14">
-        <v>-0.003303750357858575</v>
+        <v>-0.001437084695707204</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1100,19 +1082,19 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F15">
-        <v>0.007692307692307693</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H15">
-        <v>-0.001325728379836596</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1123,19 +1105,19 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H16">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1146,19 +1128,19 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H17">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1172,16 +1154,16 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H18">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1192,19 +1174,19 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>654</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.00764525993883792</v>
       </c>
       <c r="G19">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H19">
-        <v>-0.009018036072144289</v>
+        <v>-0.0003707721252903355</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1215,22 +1197,19 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>650</v>
-      </c>
-      <c r="D20">
-        <v>0.01628620358387869</v>
-      </c>
-      <c r="E20" t="s">
-        <v>108</v>
+        <v>527</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
       </c>
       <c r="F20">
-        <v>0.009230769230769232</v>
+        <v>0.007590132827324478</v>
       </c>
       <c r="G20">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H20">
-        <v>0.0002127331586249427</v>
+        <v>-0.0004258992368037775</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1241,22 +1220,19 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>522</v>
-      </c>
-      <c r="D21">
-        <v>0.01781323170167989</v>
-      </c>
-      <c r="E21" t="s">
-        <v>109</v>
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
       </c>
       <c r="F21">
-        <v>0.009578544061302681</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H21">
-        <v>0.0005605079891583924</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1267,19 +1243,19 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H22">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1290,19 +1266,19 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H23">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1313,19 +1289,19 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H24">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1336,19 +1312,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H25">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1359,19 +1335,19 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H26">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1385,16 +1361,16 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H27">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1405,19 +1381,19 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H28">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1428,19 +1404,19 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H29">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1454,16 +1430,16 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H30">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1474,19 +1450,19 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.004819277108433735</v>
       </c>
       <c r="G31">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H31">
-        <v>-0.009018036072144289</v>
+        <v>-0.00319675495569452</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1497,19 +1473,19 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>411</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F32">
-        <v>0.0072992700729927</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H32">
-        <v>-0.001718765999151588</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1520,19 +1496,19 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H33">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1546,16 +1522,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H34">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1566,22 +1542,19 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>303</v>
-      </c>
-      <c r="D35">
-        <v>0.02126582882060567</v>
-      </c>
-      <c r="E35" t="s">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
       </c>
       <c r="F35">
-        <v>0.009900990099009901</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H35">
-        <v>0.0008829540268656122</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1592,22 +1565,19 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>207</v>
-      </c>
-      <c r="D36">
-        <v>0.02364998974854453</v>
-      </c>
-      <c r="E36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
         <v>111</v>
       </c>
       <c r="F36">
-        <v>0.00966183574879227</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H36">
-        <v>0.0006437996766479812</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1618,22 +1588,19 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>163</v>
-      </c>
-      <c r="D37">
-        <v>0.02869818951003771</v>
-      </c>
-      <c r="E37" t="s">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>0.01226993865030675</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H37">
-        <v>0.00325190257816246</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1644,19 +1611,19 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F38">
-        <v>0.008928571428571428</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H38">
-        <v>-8.946464357286084E-05</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1667,22 +1634,19 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>89</v>
-      </c>
-      <c r="D39">
-        <v>0.04646555922983502</v>
-      </c>
-      <c r="E39" t="s">
-        <v>113</v>
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>111</v>
       </c>
       <c r="F39">
-        <v>0.01123595505617977</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H39">
-        <v>0.002217918984035486</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1693,22 +1657,19 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>59</v>
-      </c>
-      <c r="D40">
-        <v>0.05816586244567992</v>
-      </c>
-      <c r="E40" t="s">
-        <v>114</v>
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
       </c>
       <c r="F40">
-        <v>0.01694915254237288</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H40">
-        <v>0.007931116470228592</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1719,22 +1680,19 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>45</v>
-      </c>
-      <c r="D41">
-        <v>0.08517963516312674</v>
-      </c>
-      <c r="E41" t="s">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>111</v>
       </c>
       <c r="F41">
-        <v>0.02222222222222222</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H41">
-        <v>0.01320418615007793</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1745,22 +1703,19 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>996</v>
-      </c>
-      <c r="D42">
-        <v>0.01871633255322402</v>
-      </c>
-      <c r="E42" t="s">
-        <v>116</v>
+        <v>296</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
       </c>
       <c r="F42">
-        <v>0.009036144578313253</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="G42">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H42">
-        <v>1.81085061689637E-05</v>
+        <v>-0.001259275307371499</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1771,22 +1726,22 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>991</v>
+        <v>215</v>
       </c>
       <c r="D43">
-        <v>0.01872755198834567</v>
+        <v>-0.005502608756711622</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F43">
-        <v>0.009081735620585268</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="G43">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H43">
-        <v>6.369954844097879E-05</v>
+        <v>0.001286293517267093</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1797,19 +1752,19 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="G44">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H44">
-        <v>-0.009018036072144289</v>
+        <v>-0.001991935678586087</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1820,19 +1775,19 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H45">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1843,19 +1798,19 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H46">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1866,22 +1821,19 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>649</v>
-      </c>
-      <c r="D47">
-        <v>0.01838763624729528</v>
-      </c>
-      <c r="E47" t="s">
-        <v>118</v>
+        <v>74</v>
+      </c>
+      <c r="D47" t="s">
+        <v>111</v>
       </c>
       <c r="F47">
-        <v>0.01232665639445301</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H47">
-        <v>0.003308620322308716</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1892,19 +1844,19 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>475</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F48">
-        <v>0.008421052631578947</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H48">
-        <v>-0.0005969834405653417</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1915,19 +1867,22 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>307</v>
-      </c>
-      <c r="D49" t="s">
-        <v>105</v>
+        <v>996</v>
+      </c>
+      <c r="D49">
+        <v>0.009606124603080374</v>
+      </c>
+      <c r="E49" t="s">
+        <v>115</v>
       </c>
       <c r="F49">
-        <v>0.006514657980456026</v>
+        <v>0.008032128514056224</v>
       </c>
       <c r="G49">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H49">
-        <v>-0.002503378091688263</v>
+        <v>1.609644992796831E-05</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1938,19 +1893,22 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>233</v>
-      </c>
-      <c r="D50" t="s">
-        <v>105</v>
+        <v>988</v>
+      </c>
+      <c r="D50">
+        <v>0.00965641302405725</v>
+      </c>
+      <c r="E50" t="s">
+        <v>116</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>0.008097165991902834</v>
       </c>
       <c r="G50">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H50">
-        <v>-0.009018036072144289</v>
+        <v>8.113392777457824E-05</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1961,19 +1919,19 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H51">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1984,19 +1942,19 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H52">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2007,19 +1965,19 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H53">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2030,19 +1988,19 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H54">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2053,19 +2011,19 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F55">
-        <v>0.004629629629629629</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H55">
-        <v>-0.00438840644251466</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2076,19 +2034,19 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F56">
-        <v>0.005847953216374269</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H56">
-        <v>-0.00317008285577002</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2099,19 +2057,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H57">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2122,19 +2080,22 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
-        <v>105</v>
+        <v>636</v>
+      </c>
+      <c r="D58">
+        <v>0.01092629026642222</v>
+      </c>
+      <c r="E58" t="s">
+        <v>117</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="G58">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H58">
-        <v>-0.009018036072144289</v>
+        <v>0.004562584288073003</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2145,19 +2106,22 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>105</v>
+        <v>486</v>
+      </c>
+      <c r="D59">
+        <v>-0.00286387243827472</v>
+      </c>
+      <c r="E59" t="s">
+        <v>118</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>0.00823045267489712</v>
       </c>
       <c r="G59">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H59">
-        <v>-0.009018036072144289</v>
+        <v>0.0002144206107688642</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2168,19 +2132,19 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.003125</v>
       </c>
       <c r="G60">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H60">
-        <v>-0.009018036072144289</v>
+        <v>-0.004891032064128256</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2191,19 +2155,19 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>236</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="G61">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H61">
-        <v>-0.009018036072144289</v>
+        <v>-0.003778743928535036</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2214,19 +2178,19 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H62">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2239,20 +2203,17 @@
       <c r="C63">
         <v>110</v>
       </c>
-      <c r="D63">
-        <v>0.03568788527104866</v>
-      </c>
-      <c r="E63" t="s">
-        <v>119</v>
+      <c r="D63" t="s">
+        <v>111</v>
       </c>
       <c r="F63">
-        <v>0.00909090909090909</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H63">
-        <v>7.287301876480155E-05</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2263,22 +2224,19 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>93</v>
-      </c>
-      <c r="D64">
-        <v>0.03911283727837132</v>
-      </c>
-      <c r="E64" t="s">
-        <v>120</v>
+        <v>65</v>
+      </c>
+      <c r="D64" t="s">
+        <v>111</v>
       </c>
       <c r="F64">
-        <v>0.01075268817204301</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H64">
-        <v>0.001734652099898723</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2289,22 +2247,19 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>69</v>
-      </c>
-      <c r="D65">
-        <v>0.05056400682638158</v>
-      </c>
-      <c r="E65" t="s">
-        <v>121</v>
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>111</v>
       </c>
       <c r="F65">
-        <v>0.01449275362318841</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H65">
-        <v>0.005474717551044117</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2315,22 +2270,19 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>53</v>
-      </c>
-      <c r="D66">
-        <v>0.06015850572452423</v>
-      </c>
-      <c r="E66" t="s">
-        <v>122</v>
+        <v>225</v>
+      </c>
+      <c r="D66" t="s">
+        <v>111</v>
       </c>
       <c r="F66">
-        <v>0.01886792452830189</v>
+        <v>0.004444444444444444</v>
       </c>
       <c r="G66">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H66">
-        <v>0.009849888456157597</v>
+        <v>-0.003571587619683811</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2341,19 +2293,19 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="G67">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H67">
-        <v>-0.009018036072144289</v>
+        <v>-0.002398054536038368</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2364,19 +2316,19 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H68">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2387,19 +2339,19 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H69">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2410,19 +2362,19 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H70">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2433,19 +2385,19 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>998</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F71">
-        <v>0.009018036072144289</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2456,19 +2408,19 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>708</v>
+        <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F72">
-        <v>0.00423728813559322</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H72">
-        <v>-0.004780747936551069</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2479,19 +2431,19 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H73">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2502,19 +2454,19 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F74">
-        <v>0.008264462809917356</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H74">
-        <v>-0.0007535732622269333</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2525,22 +2477,22 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D75">
-        <v>0.05983808289069887</v>
+        <v>0.003782543098489732</v>
       </c>
       <c r="E75" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F75">
-        <v>0.01851851851851852</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="G75">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H75">
-        <v>0.009500482446374229</v>
+        <v>0.0006796201097847877</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2551,22 +2503,22 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D76">
-        <v>0.08136217606179284</v>
+        <v>0.008650107282928228</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F76">
-        <v>0.03225806451612903</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="G76">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H76">
-        <v>0.02324002844398474</v>
+        <v>0.003478220809434962</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2577,22 +2529,19 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>21</v>
-      </c>
-      <c r="D77">
-        <v>0.103990681133156</v>
-      </c>
-      <c r="E77" t="s">
-        <v>125</v>
+        <v>56</v>
+      </c>
+      <c r="D77" t="s">
+        <v>111</v>
       </c>
       <c r="F77">
-        <v>0.04761904761904762</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H77">
-        <v>0.03860101154690333</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2603,22 +2552,19 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>11</v>
-      </c>
-      <c r="D78">
-        <v>0.1469727490491259</v>
-      </c>
-      <c r="E78" t="s">
-        <v>126</v>
+        <v>45</v>
+      </c>
+      <c r="D78" t="s">
+        <v>111</v>
       </c>
       <c r="F78">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H78">
-        <v>0.08189105483694663</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2629,19 +2575,19 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H79">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2652,19 +2598,19 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H80">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2675,19 +2621,19 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H81">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2698,22 +2644,19 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>457</v>
-      </c>
-      <c r="D82">
-        <v>0.0195551893157624</v>
-      </c>
-      <c r="E82" t="s">
-        <v>127</v>
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>111</v>
       </c>
       <c r="F82">
-        <v>0.01312910284463895</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H82">
-        <v>0.00411106677249466</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2724,19 +2667,22 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>180</v>
-      </c>
-      <c r="D83" t="s">
-        <v>105</v>
+        <v>997</v>
+      </c>
+      <c r="D83">
+        <v>0.009596924207171703</v>
+      </c>
+      <c r="E83" t="s">
+        <v>121</v>
       </c>
       <c r="F83">
-        <v>0.005555555555555556</v>
+        <v>0.00802407221664995</v>
       </c>
       <c r="G83">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H83">
-        <v>-0.003462480516588733</v>
+        <v>8.040152521694016E-06</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2747,19 +2693,19 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>704</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>0.001420454545454545</v>
       </c>
       <c r="G84">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H84">
-        <v>-0.009018036072144289</v>
+        <v>-0.00659557751867371</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2770,19 +2716,19 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H85">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2793,19 +2739,19 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H86">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2816,19 +2762,19 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H87">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2839,19 +2785,19 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H88">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2862,19 +2808,19 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H89">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2885,19 +2831,19 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H90">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2908,19 +2854,19 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H91">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2931,22 +2877,19 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>94</v>
-      </c>
-      <c r="D92">
-        <v>0.02813791775379735</v>
-      </c>
-      <c r="E92" t="s">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>111</v>
       </c>
       <c r="F92">
-        <v>0.01063829787234043</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H92">
-        <v>0.001620261800196136</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2957,19 +2900,22 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>55</v>
-      </c>
-      <c r="D93" t="s">
-        <v>105</v>
+        <v>466</v>
+      </c>
+      <c r="D93">
+        <v>0.002640908428243954</v>
+      </c>
+      <c r="E93" t="s">
+        <v>122</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="G93">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H93">
-        <v>-0.009018036072144289</v>
+        <v>0.0005676589229962076</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2980,19 +2926,19 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="G94">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H94">
-        <v>-0.009018036072144289</v>
+        <v>-0.002581249455432604</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3003,19 +2949,19 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H95">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3026,19 +2972,19 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H96">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3049,19 +2995,19 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H97">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3072,19 +3018,19 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0.009018036072144289</v>
+        <v>0.008016032064128256</v>
       </c>
       <c r="H98">
-        <v>-0.009018036072144289</v>
+        <v>-0.008016032064128256</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3095,19 +3041,157 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D99" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0.008016032064128256</v>
+      </c>
+      <c r="H99">
+        <v>-0.008016032064128256</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0.009018036072144289</v>
-      </c>
-      <c r="H99">
-        <v>-0.009018036072144289</v>
+      <c r="C100">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0.008016032064128256</v>
+      </c>
+      <c r="H100">
+        <v>-0.008016032064128256</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0.008016032064128256</v>
+      </c>
+      <c r="H101">
+        <v>-0.008016032064128256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>111</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0.008016032064128256</v>
+      </c>
+      <c r="H102">
+        <v>-0.008016032064128256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0.008016032064128256</v>
+      </c>
+      <c r="H103">
+        <v>-0.008016032064128256</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0.008016032064128256</v>
+      </c>
+      <c r="H104">
+        <v>-0.008016032064128256</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0.008016032064128256</v>
+      </c>
+      <c r="H105">
+        <v>-0.008016032064128256</v>
       </c>
     </row>
   </sheetData>
